--- a/jpcore-r4/feature/swg45-JP_Condition_Diagnosis/ValueSet-jp-condition-disease-code-medis-record-no-vs.xlsx
+++ b/jpcore-r4/feature/swg45-JP_Condition_Diagnosis/ValueSet-jp-condition-disease-code-medis-record-no-vs.xlsx
@@ -93,7 +93,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+    <t>Copyright MEDIS-DC 医療情報システム開発センター</t>
   </si>
   <si>
     <t>Immutable</t>
